--- a/testbed/lab_nw_auto_test.xlsx
+++ b/testbed/lab_nw_auto_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog-videos\lab_nw_auto_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE55D3-A327-4968-9238-F95ED2620D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A9490-2E86-4DD6-B25F-FA6DE04D5D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2295" windowWidth="21600" windowHeight="11835" xr2:uid="{F58A7B6D-CAAD-401F-8C1C-8A778D326261}"/>
+    <workbookView xWindow="-28785" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{F58A7B6D-CAAD-401F-8C1C-8A778D326261}"/>
   </bookViews>
   <sheets>
     <sheet name="192.168.0.211" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>interface</t>
   </si>
@@ -89,6 +89,36 @@
   </si>
   <si>
     <t>192.168.0.212</t>
+  </si>
+  <si>
+    <t>ospf</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>192.168.0.213</t>
+  </si>
+  <si>
+    <t>192.168.0.214</t>
+  </si>
+  <si>
+    <t>10.100.34.3</t>
+  </si>
+  <si>
+    <t>10.100.13.3</t>
+  </si>
+  <si>
+    <t>10.100.23.3</t>
+  </si>
+  <si>
+    <t>10.100.34.4</t>
+  </si>
+  <si>
+    <t>10.100.24.4</t>
+  </si>
+  <si>
+    <t>10.100.14.4</t>
   </si>
 </sst>
 </file>
@@ -440,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7C5F9-F770-488C-AB6D-27208EF2E8E0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +484,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -470,8 +500,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -484,8 +517,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -498,8 +537,14 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -512,8 +557,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -526,8 +577,14 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -540,8 +597,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -553,6 +616,132 @@
       </c>
       <c r="D7" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/testbed/lab_nw_auto_test.xlsx
+++ b/testbed/lab_nw_auto_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog-videos\lab_nw_auto_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15A9490-2E86-4DD6-B25F-FA6DE04D5D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD069C17-7FB1-4AA0-A9DB-30413A7679CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28785" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{F58A7B6D-CAAD-401F-8C1C-8A778D326261}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F58A7B6D-CAAD-401F-8C1C-8A778D326261}"/>
   </bookViews>
   <sheets>
     <sheet name="192.168.0.211" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
   <si>
     <t>interface</t>
   </si>
@@ -91,12 +91,6 @@
     <t>192.168.0.212</t>
   </si>
   <si>
-    <t>ospf</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
     <t>192.168.0.213</t>
   </si>
   <si>
@@ -119,16 +113,103 @@
   </si>
   <si>
     <t>10.100.14.4</t>
+  </si>
+  <si>
+    <t>ospf_area</t>
+  </si>
+  <si>
+    <t>ospf_process</t>
+  </si>
+  <si>
+    <t>ospf_nw_type</t>
+  </si>
+  <si>
+    <t>eigrp_process</t>
+  </si>
+  <si>
+    <t>eigrp_asnum</t>
+  </si>
+  <si>
+    <t>eigrp_af</t>
+  </si>
+  <si>
+    <t>eigrp_network</t>
+  </si>
+  <si>
+    <t>bgp_process</t>
+  </si>
+  <si>
+    <t>bgp_neighbor</t>
+  </si>
+  <si>
+    <t>vrf</t>
+  </si>
+  <si>
+    <t>vrf_name</t>
+  </si>
+  <si>
+    <t>vrf_rd</t>
+  </si>
+  <si>
+    <t>vrf_af</t>
+  </si>
+  <si>
+    <t>point-to-point</t>
+  </si>
+  <si>
+    <t>TEST_EIGRP</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>bgp_af</t>
+  </si>
+  <si>
+    <t>bgp_nw_mask</t>
+  </si>
+  <si>
+    <t>bgp_nw_prefix</t>
+  </si>
+  <si>
+    <t>bgp</t>
+  </si>
+  <si>
+    <t>bgp_remote_as</t>
+  </si>
+  <si>
+    <t>Loopback0</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>3.3.3.3</t>
+  </si>
+  <si>
+    <t>4.4.4.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7C5F9-F770-488C-AB6D-27208EF2E8E0}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +563,21 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -501,10 +594,58 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -518,13 +659,43 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -538,13 +709,43 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -558,13 +759,43 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -578,13 +809,43 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -598,13 +859,43 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -618,133 +909,544 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/testbed/lab_nw_auto_test.xlsx
+++ b/testbed/lab_nw_auto_test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blog-videos\lab_nw_auto_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD069C17-7FB1-4AA0-A9DB-30413A7679CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B339EA-A6C5-44B1-98B7-C3A3735DF79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F58A7B6D-CAAD-401F-8C1C-8A778D326261}"/>
   </bookViews>
   <sheets>
-    <sheet name="192.168.0.211" sheetId="1" r:id="rId1"/>
-    <sheet name="192.168.0.212" sheetId="2" r:id="rId2"/>
+    <sheet name="inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="verify" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="53">
   <si>
     <t>interface</t>
   </si>
@@ -70,9 +70,6 @@
     <t>10.100.14.1</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>10.100.12.2</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>4.4.4.4</t>
+  </si>
+  <si>
+    <t>ping_list</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -594,60 +594,60 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
-      </c>
-      <c r="V1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -768,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -786,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -797,19 +797,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
@@ -847,19 +847,19 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -947,19 +947,19 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -968,28 +968,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -997,19 +997,19 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1018,25 +1018,25 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
         <v>8</v>
@@ -1047,19 +1047,19 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1068,28 +1068,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -1097,19 +1097,19 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1118,28 +1118,28 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R11">
         <v>3</v>
@@ -1147,19 +1147,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1168,28 +1168,28 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1197,19 +1197,19 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1218,25 +1218,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
         <v>10</v>
@@ -1247,19 +1247,19 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1268,98 +1268,98 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
         <v>48</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1368,48 +1368,48 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1418,31 +1418,31 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1454,73 +1454,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B82904-9645-4EA1-9BC8-B648997A90A4}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
